--- a/data/trans_orig/P14B34-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Dificultad-trans_orig.xlsx
@@ -1117,19 +1117,19 @@
         <v>13509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7185</v>
+        <v>7172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23293</v>
+        <v>24158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01294031850811512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006882995438453815</v>
+        <v>0.006870182259215624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02231244067694888</v>
+        <v>0.0231408290510801</v>
       </c>
     </row>
     <row r="5">
@@ -1146,19 +1146,19 @@
         <v>1030426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1020642</v>
+        <v>1019777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1036750</v>
+        <v>1036763</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9870596814918848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9776875593230511</v>
+        <v>0.9768591709489199</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931170045615462</v>
+        <v>0.9931298177407845</v>
       </c>
     </row>
     <row r="6">
@@ -1208,19 +1208,19 @@
         <v>19304</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11493</v>
+        <v>10691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29971</v>
+        <v>28911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01977777363234583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0117748416715415</v>
+        <v>0.01095404536454414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03070753630692371</v>
+        <v>0.0296212402574012</v>
       </c>
     </row>
     <row r="8">
@@ -1237,19 +1237,19 @@
         <v>956718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>946051</v>
+        <v>947111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964529</v>
+        <v>965331</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9802222263676542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9692924636930764</v>
+        <v>0.9703787597425988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9882251583284585</v>
+        <v>0.9890459546354559</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>16314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10069</v>
+        <v>9303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26089</v>
+        <v>25466</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01843112664830823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01137606409388046</v>
+        <v>0.01051051421950933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02947521290548977</v>
+        <v>0.02877189219223898</v>
       </c>
     </row>
     <row r="11">
@@ -1328,19 +1328,19 @@
         <v>868801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>859026</v>
+        <v>859649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>875046</v>
+        <v>875812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9815688733516917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9705247870945111</v>
+        <v>0.9712281078077613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9886239359061196</v>
+        <v>0.9894894857804911</v>
       </c>
     </row>
     <row r="12">
@@ -1390,19 +1390,19 @@
         <v>8388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4134</v>
+        <v>4162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15857</v>
+        <v>17175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01674863865264885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008253595165291311</v>
+        <v>0.008309349046813625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03166044444649504</v>
+        <v>0.03429353190312011</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>492443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484974</v>
+        <v>483656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>496697</v>
+        <v>496669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9832513613473511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9683395555535046</v>
+        <v>0.9657064680968793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9917464048347087</v>
+        <v>0.9916906509531863</v>
       </c>
     </row>
     <row r="15">
@@ -1481,19 +1481,19 @@
         <v>57514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43266</v>
+        <v>43248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73428</v>
+        <v>75205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01688665233995446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0127032939505481</v>
+        <v>0.01269809428037907</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02155900859723047</v>
+        <v>0.02208075397187981</v>
       </c>
     </row>
     <row r="17">
@@ -1510,19 +1510,19 @@
         <v>3348389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3332475</v>
+        <v>3330698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3362637</v>
+        <v>3362655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9831133476600455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9784409914027695</v>
+        <v>0.9779192460281204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872967060494519</v>
+        <v>0.987301905719621</v>
       </c>
     </row>
     <row r="18">
@@ -1690,19 +1690,19 @@
         <v>15394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9119</v>
+        <v>8653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24459</v>
+        <v>24672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01364703710738632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008084263112327298</v>
+        <v>0.007671468523427608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02168327175317058</v>
+        <v>0.02187279181140346</v>
       </c>
     </row>
     <row r="5">
@@ -1719,19 +1719,19 @@
         <v>1112603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1103538</v>
+        <v>1103325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1118878</v>
+        <v>1119344</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9863529628926136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9783167282468294</v>
+        <v>0.9781272081885966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9919157368876728</v>
+        <v>0.9923285314765724</v>
       </c>
     </row>
     <row r="6">
@@ -1781,19 +1781,19 @@
         <v>6824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3252</v>
+        <v>3432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12825</v>
+        <v>13877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007508705151681692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003577697078837463</v>
+        <v>0.00377588830937065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01411198271429444</v>
+        <v>0.01526939277448405</v>
       </c>
     </row>
     <row r="8">
@@ -1810,19 +1810,19 @@
         <v>902001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896000</v>
+        <v>894948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905573</v>
+        <v>905393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9924912948483183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858880172857055</v>
+        <v>0.984730607225516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9964223029211625</v>
+        <v>0.9962241116906294</v>
       </c>
     </row>
     <row r="9">
@@ -1872,19 +1872,19 @@
         <v>6722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3107</v>
+        <v>3274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13250</v>
+        <v>13412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008159911008373589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00377187856838035</v>
+        <v>0.003974729616678522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01608494454820224</v>
+        <v>0.01628100753473143</v>
       </c>
     </row>
     <row r="11">
@@ -1901,19 +1901,19 @@
         <v>817037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>810509</v>
+        <v>810347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820652</v>
+        <v>820485</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918400889916265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9839150554517975</v>
+        <v>0.9837189924652684</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962281214316197</v>
+        <v>0.9960252703833213</v>
       </c>
     </row>
     <row r="12">
@@ -1963,19 +1963,19 @@
         <v>7223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3152</v>
+        <v>3134</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15293</v>
+        <v>14635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01425551204835649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00621992295678104</v>
+        <v>0.006184510189441671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03018169705202436</v>
+        <v>0.02888319434347486</v>
       </c>
     </row>
     <row r="14">
@@ -1992,19 +1992,19 @@
         <v>499478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491408</v>
+        <v>492066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>503549</v>
+        <v>503567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9857444879516435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9698183029479756</v>
+        <v>0.9711168056565251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9937800770432188</v>
+        <v>0.9938154898105581</v>
       </c>
     </row>
     <row r="15">
@@ -2054,19 +2054,19 @@
         <v>36163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26367</v>
+        <v>25738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51107</v>
+        <v>49844</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01073952170432506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00783025658452817</v>
+        <v>0.007643585443921352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01517752342519444</v>
+        <v>0.01480237488888279</v>
       </c>
     </row>
     <row r="17">
@@ -2083,19 +2083,19 @@
         <v>3331119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3316175</v>
+        <v>3317438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3340915</v>
+        <v>3341544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.989260478295675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9848224765748055</v>
+        <v>0.9851976251111171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9921697434154718</v>
+        <v>0.9923564145560786</v>
       </c>
     </row>
     <row r="18">
@@ -2263,19 +2263,19 @@
         <v>4379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1581</v>
+        <v>1649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9225</v>
+        <v>9617</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.008838810278613425</v>
+        <v>0.008838810278613426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003191325748619018</v>
+        <v>0.003327721416593099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01862107523432199</v>
+        <v>0.01941281856133948</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2292,19 @@
         <v>491019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486173</v>
+        <v>485781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493817</v>
+        <v>493749</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9911611897213864</v>
+        <v>0.9911611897213866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9813789247656779</v>
+        <v>0.9805871814386604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968086742513811</v>
+        <v>0.9966722785834068</v>
       </c>
     </row>
     <row r="6">
@@ -2354,19 +2354,19 @@
         <v>10853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6494</v>
+        <v>6682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16991</v>
+        <v>17947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01139411202994382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006817271176415454</v>
+        <v>0.007015258572478796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0178375920391855</v>
+        <v>0.01884122118706803</v>
       </c>
     </row>
     <row r="8">
@@ -2383,19 +2383,19 @@
         <v>941676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>935538</v>
+        <v>934582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>946035</v>
+        <v>945847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9886058879700562</v>
+        <v>0.9886058879700563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9821624079608146</v>
+        <v>0.981158778812932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931827288235845</v>
+        <v>0.9929847414275211</v>
       </c>
     </row>
     <row r="9">
@@ -2445,19 +2445,19 @@
         <v>9627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5470</v>
+        <v>5664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15655</v>
+        <v>15748</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.00920745535408982</v>
+        <v>0.009207455354089818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005231098643442077</v>
+        <v>0.005417288623876204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01497220080197271</v>
+        <v>0.0150611682094999</v>
       </c>
     </row>
     <row r="11">
@@ -2474,19 +2474,19 @@
         <v>1035984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1029956</v>
+        <v>1029863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1040141</v>
+        <v>1039947</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9907925446459103</v>
+        <v>0.9907925446459102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9850277991980274</v>
+        <v>0.9849388317905001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9947689013565577</v>
+        <v>0.994582711376124</v>
       </c>
     </row>
     <row r="12">
@@ -2536,19 +2536,19 @@
         <v>11064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6323</v>
+        <v>6245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18637</v>
+        <v>19122</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01143768589624812</v>
+        <v>0.01143768589624813</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006536354159269088</v>
+        <v>0.006455314002636691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01926583103812153</v>
+        <v>0.01976744136696948</v>
       </c>
     </row>
     <row r="14">
@@ -2565,19 +2565,19 @@
         <v>956300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>948727</v>
+        <v>948242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>961041</v>
+        <v>961119</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885623141037518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9807341689618785</v>
+        <v>0.9802325586330304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.993463645840731</v>
+        <v>0.9935446859973632</v>
       </c>
     </row>
     <row r="15">
@@ -2627,19 +2627,19 @@
         <v>35924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27499</v>
+        <v>26121</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48174</v>
+        <v>47847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01037988723751587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007945615970925983</v>
+        <v>0.00754757887698923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01391955292815285</v>
+        <v>0.01382505049221483</v>
       </c>
     </row>
     <row r="17">
@@ -2656,19 +2656,19 @@
         <v>3424978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3412728</v>
+        <v>3413055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3433403</v>
+        <v>3434781</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9896201127624842</v>
+        <v>0.9896201127624843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9860804470718472</v>
+        <v>0.9861749495077853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.992054384029074</v>
+        <v>0.9924524211230108</v>
       </c>
     </row>
     <row r="18">
